--- a/GPIO.xlsx
+++ b/GPIO.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6D183062-4301-4536-9916-6644F5272F61}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0A3117F4-7349-42D1-8122-BBA5D5688801}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,10 @@
   </si>
   <si>
     <t>该死的蜂鸣器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电缸使能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,7 +431,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -603,6 +607,9 @@
       <c r="A15">
         <v>13</v>
       </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
       <c r="F15" t="s">
         <v>15</v>
       </c>
@@ -610,6 +617,9 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
